--- a/Table/Table_xls/技能相关表/y一次性buff表.xlsx
+++ b/Table/Table_xls/技能相关表/y一次性buff表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>user:
+          <t xml:space="preserve">user:
 1,物理伤害显示
 2,法术伤害显示
 3,治疗显示
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <r>
       <rPr>
@@ -339,7 +340,7 @@
     <t>清除毒buff</t>
   </si>
   <si>
-    <t>普通驱散异常buff（药和牧师技能使用，只能驱散弱控制）</t>
+    <t>神迹</t>
   </si>
   <si>
     <t>110;120;130</t>
@@ -414,11 +415,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -458,10 +459,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,7 +492,43 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,8 +540,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,80 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -584,26 +587,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -626,25 +622,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,157 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,8 +819,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,6 +830,62 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,67 +905,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,148 +918,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,12 +1150,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1486,16 +1477,17 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/Table/Table_xls/技能相关表/y一次性buff表.xlsx
+++ b/Table/Table_xls/技能相关表/y一次性buff表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="24920" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 1,物理伤害显示
 2,法术伤害显示
 3,治疗显示
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -340,7 +339,7 @@
     <t>清除毒buff</t>
   </si>
   <si>
-    <t>神迹</t>
+    <t>普通驱散异常buff（药和牧师技能使用，只能驱散弱控制）</t>
   </si>
   <si>
     <t>110;120;130</t>
@@ -419,7 +418,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -455,6 +454,94 @@
     <font>
       <sz val="10"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -468,15 +555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,15 +563,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,100 +600,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -622,73 +626,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,109 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,15 +817,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -849,17 +844,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,6 +894,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -918,148 +922,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,7 +1154,12 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1477,28 +1486,27 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="$A38:$XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="13.65" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.14159292035398" style="2"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="1"/>
-    <col min="6" max="6" width="48.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="22.141592920354" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5752212389381" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.14159292035398" style="1"/>
+    <col min="6" max="6" width="48.5752212389381" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14159292035398" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
@@ -1965,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="14.3" spans="1:6">
       <c r="A29" s="9">
         <v>510128</v>
       </c>
@@ -2045,7 +2053,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" ht="14.3" spans="1:6">
       <c r="A33" s="9">
         <v>510132</v>
       </c>
@@ -2065,7 +2073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" ht="14.3" spans="1:6">
       <c r="A34" s="9">
         <v>510133</v>
       </c>
@@ -2085,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" ht="14.3" spans="1:5">
       <c r="A35" s="9">
         <v>510134</v>
       </c>
@@ -2139,7 +2147,7 @@
         <v>509051</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" ht="14.3" spans="1:5">
       <c r="A38" s="15">
         <v>510137</v>
       </c>
@@ -2156,7 +2164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" ht="14.3" spans="1:5">
       <c r="A39" s="9">
         <v>510138</v>
       </c>
@@ -2173,7 +2181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" ht="14.3" spans="1:5">
       <c r="A40" s="15">
         <v>510139</v>
       </c>
@@ -2230,7 +2238,7 @@
         <v>509201</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" ht="14.3" spans="1:6">
       <c r="A43" s="9">
         <v>510142</v>
       </c>
@@ -2250,7 +2258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" ht="14.3" spans="1:6">
       <c r="A44" s="15">
         <v>510143</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" ht="14.3" spans="1:6">
       <c r="A45" s="9">
         <v>510145</v>
       </c>
@@ -2324,7 +2332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:5">
+    <row r="48" s="1" customFormat="1" ht="14.3" spans="1:5">
       <c r="A48" s="15">
         <v>510301</v>
       </c>
